--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>381300</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>123000</v>
+      </c>
+      <c r="I8" s="3">
         <v>298200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>214700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>81900</v>
+      </c>
+      <c r="I9" s="3">
         <v>166900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>166600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>41100</v>
+      </c>
+      <c r="I10" s="3">
         <v>131300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>313300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>141600</v>
+      </c>
+      <c r="I17" s="3">
         <v>239300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="I18" s="3">
         <v>58900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>76200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>86300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I22" s="3">
         <v>23900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>49300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7200</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I24" s="3">
         <v>31200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>42100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>42100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,20 +1705,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>157100</v>
+      </c>
+      <c r="F41" s="3">
         <v>148900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1771,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F43" s="3">
         <v>35800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,20 +1806,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F44" s="3">
         <v>181100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,20 +1841,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F45" s="3">
         <v>24600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,20 +1876,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>372100</v>
+      </c>
+      <c r="F46" s="3">
         <v>390400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,20 +1946,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>244000</v>
+      </c>
+      <c r="F48" s="3">
         <v>74700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,20 +1981,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>121200</v>
+      </c>
+      <c r="F49" s="3">
         <v>121700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,20 +2156,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>747100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>746400</v>
+      </c>
+      <c r="F54" s="3">
         <v>588000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,20 +2225,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>92400</v>
+      </c>
+      <c r="F57" s="3">
         <v>133100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,19 +2256,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>8300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,20 +2291,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>157500</v>
+      </c>
+      <c r="F59" s="3">
         <v>119300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,20 +2326,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>192900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>258200</v>
+      </c>
+      <c r="F60" s="3">
         <v>260700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,20 +2361,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>795400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1179600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1182800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2111,20 +2396,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>135700</v>
+      </c>
+      <c r="F62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,20 +2536,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1133500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1457100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,20 +2726,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-386600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-827200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-869200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,20 +2866,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-386400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-827000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-869100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>42100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>8300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-119300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>17500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-5100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-5100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>66600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-4200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-53000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>8200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,90 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E8" s="3">
         <v>145000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>381300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>123000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>298200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -755,32 +758,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E9" s="3">
         <v>93300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>214700</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>81900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>166900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,32 +796,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E10" s="3">
         <v>51700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>41100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>131300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,34 +926,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>7300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,32 +1017,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E17" s="3">
         <v>178100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>313300</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>141600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>239300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,32 +1053,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,32 +1109,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,32 +1145,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>76200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>86300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,32 +1183,35 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
         <v>11500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>22400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,32 +1221,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>49300</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
         <v>-41200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,32 +1259,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>-15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,32 +1335,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42100</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <v>-26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,32 +1373,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42100</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
         <v>-26200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,32 +1563,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1532,32 +1601,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42100</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
         <v>-26200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,32 +1677,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42100</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
         <v>-26200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,48 +1715,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1792,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E41" s="3">
         <v>104100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>157100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>148900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,23 +1866,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E43" s="3">
         <v>37100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,23 +1904,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>277900</v>
+      </c>
+      <c r="E44" s="3">
         <v>174500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>149000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>181100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1847,23 +1942,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E45" s="3">
         <v>39900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,23 +1980,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E46" s="3">
         <v>355600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>372100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>390400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2056,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245200</v>
+      </c>
+      <c r="E48" s="3">
         <v>253800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>244000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,23 +2094,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E49" s="3">
         <v>120600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,23 +2208,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E52" s="3">
         <v>17100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2284,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>858900</v>
+      </c>
+      <c r="E54" s="3">
         <v>747100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>746400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>588000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2356,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E57" s="3">
         <v>69000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>92400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>133100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,13 +2392,16 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
         <v>8300</v>
@@ -2276,8 +2409,8 @@
       <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>8300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2297,23 +2430,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E59" s="3">
         <v>115500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>157500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>119300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,23 +2468,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E60" s="3">
         <v>192900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>258200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>260700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,23 +2506,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>789300</v>
+      </c>
+      <c r="E61" s="3">
         <v>795400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1179600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1182800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,23 +2544,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E62" s="3">
         <v>145300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>135700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2696,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1133500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1573400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1457100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,23 +2902,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-386600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-827200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-869200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3054,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-386400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-827000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-869100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,72 +3130,78 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42100</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3">
         <v>-26200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3229,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,20 +3455,23 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-119300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3484,8 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3277,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3511,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,20 +3623,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3423,8 +3652,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,20 +3829,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>66600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3858,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3622,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3905,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3683,13 +3934,16 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>596500</v>
+      </c>
+      <c r="E8" s="3">
         <v>192400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>381300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
+        <v>479900</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
         <v>123000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>298200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,35 +764,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>312800</v>
+      </c>
+      <c r="E9" s="3">
         <v>120800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>214700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
+        <v>269200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>81900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>166900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>283700</v>
+      </c>
+      <c r="E10" s="3">
         <v>71600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>166600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
+        <v>210700</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>41100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>131300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,37 +945,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>430100</v>
+      </c>
+      <c r="E17" s="3">
         <v>193000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>178100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>313300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
+        <v>368300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>141600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>239300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
+        <v>111600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-18600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>76200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>86300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,35 +1222,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E22" s="3">
         <v>8100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>22400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49300</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H23" s="3">
+        <v>91500</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
         <v>-41200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,35 +1304,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
         <v>-26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H27" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
         <v>-26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
+        <v>600</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="H33" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
         <v>-26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
         <v>-26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,51 +1796,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>309100</v>
+      </c>
+      <c r="E41" s="3">
         <v>90300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>157100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>148900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E43" s="3">
         <v>41700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,26 +1999,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E44" s="3">
         <v>277900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>174500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>149000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>181100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,26 +2040,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E45" s="3">
         <v>58300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>610100</v>
+      </c>
+      <c r="E46" s="3">
         <v>468300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>355600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>372100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>390400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,26 +2163,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E48" s="3">
         <v>245200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>253800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>244000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,26 +2204,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E49" s="3">
         <v>127900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>120600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E52" s="3">
         <v>17600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>997800</v>
+      </c>
+      <c r="E54" s="3">
         <v>858900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>747100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>746400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>588000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E57" s="3">
         <v>181500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>92400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>133100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2537,7 @@
         <v>8100</v>
       </c>
       <c r="E58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="F58" s="3">
         <v>8300</v>
@@ -2412,8 +2545,8 @@
       <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>8300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2433,26 +2566,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E59" s="3">
         <v>137700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>115500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>157500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>119300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E60" s="3">
         <v>327400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>192900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>258200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>260700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,26 +2648,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>787700</v>
+      </c>
+      <c r="E61" s="3">
         <v>789300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>795400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1179600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1182800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E62" s="3">
         <v>133200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>145300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1263500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1249900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1133500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1573400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1457100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-391200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-386600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-827200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-869200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-265700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-391000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-386400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-827000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-869100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,78 +3321,84 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="H81" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3">
         <v>-26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,14 +3437,14 @@
         <v>6300</v>
       </c>
       <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,8 +3457,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3268,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,23 +3671,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-119300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,8 +3703,8 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,23 +3731,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3761,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,23 +3852,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,8 +3884,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3893,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,23 +4074,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>66600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4106,8 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3870,8 +4115,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,23 +4156,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-53000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,13 +4188,16 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,216 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>408900</v>
+      </c>
+      <c r="F8" s="3">
         <v>596500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>192400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>145000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>381300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>479900</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>123000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>298200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>220900</v>
+      </c>
+      <c r="F9" s="3">
         <v>312800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>120800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>93300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>214700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>269200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>81900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>166900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F10" s="3">
         <v>283700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>71600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>51700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>166600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>210700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>41100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>131300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +890,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,40 +995,46 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1094,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>341800</v>
+      </c>
+      <c r="F17" s="3">
         <v>430100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>193000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>178100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>313300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>368300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>141600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>239300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F18" s="3">
         <v>166400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-33100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>111600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>58900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,213 +1207,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F21" s="3">
         <v>171900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>76200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>86300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G22" s="3">
         <v>8100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>11500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>18600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>19500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>22400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>59300</v>
+      </c>
+      <c r="F23" s="3">
         <v>158200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-44600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>49300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>91500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-41200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F24" s="3">
         <v>39400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-14300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>19600</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>31200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1485,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F26" s="3">
         <v>118800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>42100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>71900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F27" s="3">
         <v>118800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>42100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>71900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1767,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F33" s="3">
         <v>118800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>42100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>71900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1908,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F35" s="3">
         <v>118800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>42100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>71900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>343500</v>
+      </c>
+      <c r="F41" s="3">
         <v>309100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>90300</v>
       </c>
-      <c r="F41" s="3">
-        <v>104100</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>102800</v>
+      </c>
+      <c r="I41" s="3">
         <v>157100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>148900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,32 +2139,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F43" s="3">
         <v>47800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41700</v>
       </c>
-      <c r="F43" s="3">
-        <v>37100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>74200</v>
+      </c>
+      <c r="I43" s="3">
         <v>31500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>35800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,32 +2186,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>198800</v>
+      </c>
+      <c r="F44" s="3">
         <v>224500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>277900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>174500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>149000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>181100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,32 +2233,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>58300</v>
       </c>
-      <c r="F45" s="3">
-        <v>39900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>34600</v>
-      </c>
       <c r="H45" s="3">
+        <v>65500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J45" s="3">
         <v>24600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>375500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>601700</v>
+      </c>
+      <c r="F46" s="3">
         <v>610100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>468300</v>
       </c>
-      <c r="F46" s="3">
-        <v>355600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>372100</v>
-      </c>
       <c r="H46" s="3">
+        <v>340100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>360200</v>
+      </c>
+      <c r="J46" s="3">
         <v>390400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2327,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,32 +2374,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>273200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>282600</v>
+      </c>
+      <c r="F48" s="3">
         <v>235400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>245200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>253800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>244000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>74700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,32 +2421,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F49" s="3">
         <v>127700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>127900</v>
       </c>
-      <c r="F49" s="3">
-        <v>120600</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>122000</v>
+      </c>
+      <c r="J49" s="3">
         <v>121700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2468,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2562,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F52" s="3">
         <v>24600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
-        <v>17100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9100</v>
-      </c>
       <c r="H52" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>811300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1042200</v>
+      </c>
+      <c r="F54" s="3">
         <v>997800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>858900</v>
       </c>
-      <c r="F54" s="3">
-        <v>747100</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>745800</v>
+      </c>
+      <c r="I54" s="3">
         <v>746400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>588000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2745,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F57" s="3">
         <v>155500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>181500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>69000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>92400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>133100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2788,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,19 +2806,19 @@
         <v>8100</v>
       </c>
       <c r="F58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="G58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="H58" s="3">
         <v>8300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2569,32 +2835,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200700</v>
+      </c>
+      <c r="F59" s="3">
         <v>190500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>137700</v>
       </c>
-      <c r="F59" s="3">
-        <v>115500</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>114200</v>
+      </c>
+      <c r="I59" s="3">
         <v>157500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>119300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2882,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>309700</v>
+      </c>
+      <c r="F60" s="3">
         <v>354100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>327400</v>
       </c>
-      <c r="F60" s="3">
-        <v>192900</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>191600</v>
+      </c>
+      <c r="I60" s="3">
         <v>258200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>260700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,32 +2929,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>784500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F61" s="3">
         <v>787700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>789300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>795400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1179600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1182800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,32 +2976,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F62" s="3">
         <v>121700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>133200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>145300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>135700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3164,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1192600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1259800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1263500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1249900</v>
       </c>
-      <c r="F66" s="3">
-        <v>1133500</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>1132300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1573400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1457100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3418,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-381500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-217700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-265900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-391200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-386600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-827200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-869200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-381300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-217600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-265700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-391000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-386400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-827000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-869100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3700,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F81" s="3">
         <v>118800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>42100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>71900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,29 +3822,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,17 +3856,23 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,29 +4100,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-125600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>51200</v>
+      </c>
+      <c r="F89" s="3">
         <v>229800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-119300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>17500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3706,17 +4138,23 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,29 +4170,31 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3764,17 +4204,23 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,29 +4307,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3887,17 +4345,23 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,29 +4561,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>66600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4109,17 +4599,23 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,29 +4655,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-290200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F102" s="3">
         <v>218700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-53000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4191,13 +4693,19 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,114 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E8" s="3">
         <v>184800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>408900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>596500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>192400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>381300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>479900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>123000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>298200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,44 +782,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E9" s="3">
         <v>117500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>220900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>312800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>214700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>269200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
         <v>81900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,44 +832,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E10" s="3">
         <v>67300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>188000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>283700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>166600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>210700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
         <v>41100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,37 +1014,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>6400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1121,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E17" s="3">
         <v>197300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>341800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>430100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>193000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>313300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>368300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>141600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>239300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,44 +1169,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>67100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>166400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>111600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,44 +1241,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
       </c>
       <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,44 +1289,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>76200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>86300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,35 +1351,35 @@
         <v>6900</v>
       </c>
       <c r="E22" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="F22" s="3">
         <v>7400</v>
       </c>
       <c r="G22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>22400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,44 +1389,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>158200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>91500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>-41200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,44 +1439,47 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1539,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>118800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1589,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>118800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,44 +1839,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
       </c>
       <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1889,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>118800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +1989,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>118800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,60 +2039,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E41" s="3">
         <v>53300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>343500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>309100</v>
       </c>
-      <c r="G41" s="3">
-        <v>90300</v>
-      </c>
       <c r="H41" s="3">
+        <v>88700</v>
+      </c>
+      <c r="I41" s="3">
         <v>102800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>157100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>148900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2234,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E43" s="3">
         <v>39400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47800</v>
       </c>
-      <c r="G43" s="3">
-        <v>41700</v>
-      </c>
       <c r="H43" s="3">
+        <v>94500</v>
+      </c>
+      <c r="I43" s="3">
         <v>74200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,35 +2284,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>244600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>198800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>224500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>277900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>174500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>149000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>181100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,35 +2334,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
-        <v>58300</v>
-      </c>
       <c r="H45" s="3">
+        <v>87300</v>
+      </c>
+      <c r="I45" s="3">
         <v>65500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2384,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E46" s="3">
         <v>375500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>601700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>610100</v>
       </c>
-      <c r="G46" s="3">
-        <v>468300</v>
-      </c>
       <c r="H46" s="3">
+        <v>448300</v>
+      </c>
+      <c r="I46" s="3">
         <v>340100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>360200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>390400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2434,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2484,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E48" s="3">
         <v>273200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>282600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>245200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>253800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>244000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,35 +2534,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E49" s="3">
         <v>132400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127700</v>
       </c>
-      <c r="G49" s="3">
-        <v>127900</v>
-      </c>
       <c r="H49" s="3">
+        <v>128600</v>
+      </c>
+      <c r="I49" s="3">
         <v>121200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>121700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2684,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E52" s="3">
         <v>30200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24600</v>
       </c>
-      <c r="G52" s="3">
-        <v>17600</v>
-      </c>
       <c r="H52" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I52" s="3">
         <v>31400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>930200</v>
+      </c>
+      <c r="E54" s="3">
         <v>811300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1042200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>997800</v>
       </c>
-      <c r="G54" s="3">
-        <v>858900</v>
-      </c>
       <c r="H54" s="3">
+        <v>857300</v>
+      </c>
+      <c r="I54" s="3">
         <v>745800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>746400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>588000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E57" s="3">
         <v>99500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>155500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>181500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>92400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>133100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2924,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,7 +2945,7 @@
         <v>8100</v>
       </c>
       <c r="H58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="I58" s="3">
         <v>8300</v>
@@ -2820,8 +2953,8 @@
       <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>8300</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2841,35 +2974,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E59" s="3">
         <v>146600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>190500</v>
       </c>
-      <c r="G59" s="3">
-        <v>137700</v>
-      </c>
       <c r="H59" s="3">
+        <v>136100</v>
+      </c>
+      <c r="I59" s="3">
         <v>114200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>157500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>119300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3024,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E60" s="3">
         <v>254200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>309700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>354100</v>
       </c>
-      <c r="G60" s="3">
-        <v>327400</v>
-      </c>
       <c r="H60" s="3">
+        <v>325800</v>
+      </c>
+      <c r="I60" s="3">
         <v>191600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>258200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>260700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,35 +3074,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>827900</v>
+      </c>
+      <c r="E61" s="3">
         <v>784500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>160000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>787700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>789300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>795400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1179600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1182800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,35 +3124,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E62" s="3">
         <v>153800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>790000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>121700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>133200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>145300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>135700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1315900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1192600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1259800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1263500</v>
       </c>
-      <c r="G66" s="3">
-        <v>1249900</v>
-      </c>
       <c r="H66" s="3">
+        <v>1248300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1132300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1573400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1457100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-381500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-217700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-391200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-386600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-827200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-869200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-385700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-381300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-217600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-265700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-391000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-386400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-827000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-869100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,96 +3894,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>118800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,32 +4021,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6300</v>
       </c>
       <c r="G83" s="3">
         <v>6300</v>
       </c>
       <c r="H83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4060,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,32 +4319,35 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-125600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>229800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-119300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4144,8 +4360,8 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,32 +4391,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4430,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,32 +4539,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4351,8 +4580,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,32 +4809,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-154100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2000</v>
       </c>
       <c r="F100" s="3">
         <v>-2000</v>
       </c>
       <c r="G100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>66600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4850,8 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,32 +4909,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-290200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>218700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4699,13 +4950,16 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,120 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>673600</v>
+      </c>
+      <c r="E8" s="3">
         <v>228100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>408900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>596500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>192400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>381300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
         <v>123000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>298200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,47 +788,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E9" s="3">
         <v>142400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>117500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>220900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>312800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>214700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>269200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
         <v>81900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>166900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,47 +841,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E10" s="3">
         <v>85700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>188000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>283700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>166600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>210700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>41100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,37 +1036,37 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1055,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,47 +1147,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>501500</v>
+      </c>
+      <c r="E17" s="3">
         <v>232100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>197300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>341800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>430100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>193000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>313300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>368300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>141600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>239300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,47 +1198,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>67100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>166400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,47 +1274,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,47 +1325,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>76200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>86300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,47 +1378,50 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3">
         <v>6900</v>
       </c>
       <c r="F22" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3">
         <v>7400</v>
       </c>
       <c r="H22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>22400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1392,47 +1431,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>158200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>91500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
         <v>-41200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,47 +1484,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,8 +1537,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,47 +1590,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>118800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>-26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,47 +1643,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>118800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>71900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>-26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,47 +1908,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1892,47 +1961,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>118800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>-26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,47 +2067,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>118800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>-26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,63 +2120,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E41" s="3">
         <v>52000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>343500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>309100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>157100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>148900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2273,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,38 +2326,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E43" s="3">
         <v>44200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2379,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>361400</v>
+      </c>
+      <c r="E44" s="3">
         <v>345000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>244600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>198800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>224500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>277900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>174500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>149000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>181100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,38 +2432,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
         <v>30700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,38 +2485,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>632300</v>
+      </c>
+      <c r="E46" s="3">
         <v>471900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>375500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>601700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>610100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>448300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>340100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>360200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>390400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2538,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,38 +2591,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E48" s="3">
         <v>279100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>273200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>282600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>235400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>245200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>253800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>244000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,38 +2644,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E49" s="3">
         <v>146900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>132400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>121200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>122000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>121700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2697,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,38 +2803,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E52" s="3">
         <v>32400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2856,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E54" s="3">
         <v>930200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>811300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1042200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>997800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>857300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>745800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>746400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>588000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E57" s="3">
         <v>160900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>99500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>155500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>181500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>92400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>133100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,8 +3057,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,7 +3081,7 @@
         <v>8100</v>
       </c>
       <c r="I58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="J58" s="3">
         <v>8300</v>
@@ -2956,8 +3089,8 @@
       <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>8300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2977,38 +3110,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E59" s="3">
         <v>169200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>146600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>190500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>157500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>119300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,38 +3163,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E60" s="3">
         <v>338200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>254200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>309700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>354100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>325800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>191600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>258200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>260700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,38 +3216,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>781300</v>
+      </c>
+      <c r="E61" s="3">
         <v>827900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>784500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>787700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>789300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>795400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1179600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1182800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3127,38 +3269,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E62" s="3">
         <v>149800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>153800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>790000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>121700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>133200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>145300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>135700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3322,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1375800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1315900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1259800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1263500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1248300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1132300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1573400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1457100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,38 +3767,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-381500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-217700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-391200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-386600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-827200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-869200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-385700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-381300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-217600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-265700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-391000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-386400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-827000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-869100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,102 +4085,108 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>118800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>-26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,35 +4219,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6300</v>
       </c>
       <c r="H83" s="3">
         <v>6300</v>
       </c>
       <c r="I83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J83" s="3">
         <v>6600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4063,8 +4261,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4072,8 +4270,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,35 +4535,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-125600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>229800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-119300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4579,8 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4372,8 +4588,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,35 +4611,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4433,8 +4653,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4442,8 +4662,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,35 +4768,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4583,8 +4812,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4592,8 +4821,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,35 +5054,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E100" s="3">
         <v>43200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-154100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2000</v>
       </c>
       <c r="G100" s="3">
         <v>-2000</v>
       </c>
       <c r="H100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>66600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4853,8 +5098,8 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4862,8 +5107,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,35 +5160,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-290200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>36000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>218700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-53000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4953,13 +5204,16 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>475600</v>
+      </c>
+      <c r="E8" s="3">
         <v>673600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>228100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>184800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>408900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>596500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>192400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>381300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>479900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
         <v>123000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>298200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,50 +794,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E9" s="3">
         <v>370000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>117500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>220900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>312800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>214700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>269200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
         <v>81900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>166900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,50 +850,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>217200</v>
+      </c>
+      <c r="E10" s="3">
         <v>303600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>188000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>283700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>166600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>210700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>41100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +906,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1040,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1077,8 +1096,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1152,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,50 +1173,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>392500</v>
+      </c>
+      <c r="E17" s="3">
         <v>501500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>232100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>197300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>341800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>430100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>193000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>178100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>313300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>368300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>141600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>239300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,50 +1227,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E18" s="3">
         <v>172100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>67100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>166400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>111600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-18600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1283,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,50 +1307,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1328,50 +1361,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E21" s="3">
         <v>179300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>171900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>86300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,50 +1417,53 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6900</v>
       </c>
       <c r="F22" s="3">
         <v>6900</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H22" s="3">
         <v>7400</v>
       </c>
       <c r="I22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>22400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,50 +1473,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E23" s="3">
         <v>165400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>158200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>91500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
         <v>-41200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,50 +1529,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E24" s="3">
         <v>42400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>-15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +1585,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,50 +1641,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E26" s="3">
         <v>123000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>118800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>-26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,50 +1697,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E27" s="3">
         <v>123000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>118800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>-26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1753,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1809,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1865,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,50 +1977,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1964,50 +2033,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E33" s="3">
         <v>123000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>118800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>-26200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2089,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,50 +2145,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E35" s="3">
         <v>123000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>118800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>-26200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,66 +2201,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2308,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E41" s="3">
         <v>193100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>343500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>148900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2362,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,41 +2418,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E43" s="3">
         <v>47300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>94500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,41 +2474,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>361700</v>
+      </c>
+      <c r="E44" s="3">
         <v>361400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>244600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>198800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>224500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>277900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>174500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>149000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,41 +2530,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E45" s="3">
         <v>30500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>87300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,41 +2586,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>542400</v>
+      </c>
+      <c r="E46" s="3">
         <v>632300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>471900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>375500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>601700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>610100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>448300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>340100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>360200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>390400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2642,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,41 +2698,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E48" s="3">
         <v>293300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>279100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>273200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>282600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>245200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>253800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>244000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,41 +2754,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E49" s="3">
         <v>155700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>146900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>132400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>121200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>121700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,8 +2810,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,41 +2922,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E52" s="3">
         <v>35700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2978,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,41 +3034,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1117000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>930200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>811300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1042200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>997800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>857300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>745800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>746400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>588000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3090,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,41 +3136,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E57" s="3">
         <v>219000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>160900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>99500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>155500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>181500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>92400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>133100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3190,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3084,7 +3217,7 @@
         <v>8100</v>
       </c>
       <c r="J58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="K58" s="3">
         <v>8300</v>
@@ -3092,8 +3225,8 @@
       <c r="L58" s="3">
         <v>8300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>8300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3113,41 +3246,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E59" s="3">
         <v>205800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>169200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>146600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>190500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>157500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>119300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,41 +3302,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E60" s="3">
         <v>432900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>338200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>254200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>309700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>354100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>325800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>191600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>258200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>260700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,41 +3358,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>779700</v>
+      </c>
+      <c r="E61" s="3">
         <v>781300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>827900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>784500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>787700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>789300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>795400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1179600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1182800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3272,41 +3414,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E62" s="3">
         <v>161500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>149800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>153800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>790000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>133200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>145300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>135700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3470,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3638,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1307600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1375800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1315900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1192600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1259800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1263500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1248300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1132300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1573400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1457100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3694,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3828,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3884,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3940,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-259000</v>
+        <v>-288100</v>
       </c>
       <c r="E72" s="3">
-        <v>-385900</v>
+        <v>-346000</v>
       </c>
       <c r="F72" s="3">
-        <v>-381500</v>
+        <v>-469000</v>
       </c>
       <c r="G72" s="3">
-        <v>-217700</v>
+        <v>-461500</v>
       </c>
       <c r="H72" s="3">
-        <v>-265900</v>
+        <v>-422500</v>
       </c>
       <c r="I72" s="3">
-        <v>-391200</v>
+        <v>-467000</v>
       </c>
       <c r="J72" s="3">
+        <v>-585800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-386600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-827200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-869200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3996,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4164,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-258800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-385700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-381300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-217600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-265700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-391000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-386400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-827000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-869100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4220,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,108 +4276,114 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E81" s="3">
         <v>123000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>118800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>-26200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4393,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,38 +4417,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6300</v>
       </c>
       <c r="I83" s="3">
         <v>6300</v>
       </c>
       <c r="J83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4264,8 +4462,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4273,8 +4471,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,38 +4751,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>209400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-125600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>229800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-119300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4582,8 +4798,8 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4591,8 +4807,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,38 +4831,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4656,8 +4876,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4665,8 +4885,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,38 +4997,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +5044,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4824,8 +5053,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5077,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5131,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,38 +5299,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-46000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-154100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2000</v>
       </c>
       <c r="H100" s="3">
         <v>-2000</v>
       </c>
       <c r="I100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>66600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5101,8 +5346,8 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5110,8 +5355,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,38 +5411,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="E102" s="3">
         <v>141200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-290200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>36000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>218700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-53000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5207,13 +5458,16 @@
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,252 +665,278 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>195100</v>
+      </c>
+      <c r="F8" s="3">
         <v>475600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>673600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>228100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>184800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>408900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>596500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>192400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>145000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>381300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>479900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
         <v>123000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>298200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>129800</v>
+      </c>
+      <c r="F9" s="3">
         <v>258400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>370000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>142400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>117500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>220900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>312800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>120800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>93300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>214700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>269200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
         <v>81900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>166900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F10" s="3">
         <v>217200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>303600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>85700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>67300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>188000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>283700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>71600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>51700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>166600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>210700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>41100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>131300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,8 +957,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,8 +1015,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,16 +1077,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1061,46 +1101,52 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,8 +1201,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,120 +1226,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>222100</v>
+      </c>
+      <c r="F17" s="3">
         <v>392500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>501500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>232100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>197300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>341800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>430100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>193000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>178100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>313300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>368300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>141600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>239300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F18" s="3">
         <v>83100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>172100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>67100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>166400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-33100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>68000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>111600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-18600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>58900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,8 +1374,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1317,279 +1385,309 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F21" s="3">
         <v>91000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>179300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>74000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>171900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>76200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>86300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>18600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>19500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>22400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F23" s="3">
         <v>73500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>165400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>59300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>158200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-44600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>91500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-41200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F24" s="3">
         <v>15600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>42400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>14700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>39400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>19600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>31200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1742,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F26" s="3">
         <v>57900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>123000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>44500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>118800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-30300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>42100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>71900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-26200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F27" s="3">
         <v>57900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>123000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>44500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>118800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-30300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>42100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>71900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,8 +1928,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1868,8 +1990,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +2052,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,8 +2114,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1989,111 +2129,123 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F33" s="3">
         <v>57900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>123000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>44500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>118800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-30300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>42100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>71900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2300,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F35" s="3">
         <v>57900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>123000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>44500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>118800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-30300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>42100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>71900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2457,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,47 +2481,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>112300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>193100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>52000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>53300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>343500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>309100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>88700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>102800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>157100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>148900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2539,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,47 +2601,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F43" s="3">
         <v>45300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>47300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>39400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>77700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>47800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>94500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>74200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>31500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>35800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,47 +2663,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>492300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>429500</v>
+      </c>
+      <c r="F44" s="3">
         <v>361700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>361400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>244600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>198800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>224500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>277900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>174500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>149000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>181100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,47 +2725,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F45" s="3">
         <v>23100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>30500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>30700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>38200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>41100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>87300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>65500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>22700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>24600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,47 +2787,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>591700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>508500</v>
+      </c>
+      <c r="F46" s="3">
         <v>542400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>632300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>471900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>375500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>601700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>610100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>448300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>340100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>360200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>390400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2645,8 +2849,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2701,47 +2911,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>308900</v>
+      </c>
+      <c r="F48" s="3">
         <v>314600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>293300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>279100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>273200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>282600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>235400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>245200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>253800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>244000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>74700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2757,47 +2973,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>218100</v>
+      </c>
+      <c r="F49" s="3">
         <v>213700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>155700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>146900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>132400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>129000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>127700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>128600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>121200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>122000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>121700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,8 +3035,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +3097,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,47 +3159,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F52" s="3">
         <v>39000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>35700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>32400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>30200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>28900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>24600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>35900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>31400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>21000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3221,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,47 +3283,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1163200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1076800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1109600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1117000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>930200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>811300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1042200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>997800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>857300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>745800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>746400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>588000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3345,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3373,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,47 +3397,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F57" s="3">
         <v>156500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>219000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>160900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>99500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>101000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>155500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>181500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>69000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>92400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>133100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3193,8 +3455,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3220,19 +3488,19 @@
         <v>8100</v>
       </c>
       <c r="K58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="L58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="M58" s="3">
         <v>8300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O58" s="3">
+        <v>8300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3249,47 +3517,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F59" s="3">
         <v>183400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>205800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>169200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>146600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>190500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>136100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>114200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>157500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>119300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,47 +3579,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>254600</v>
+      </c>
+      <c r="F60" s="3">
         <v>348000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>432900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>338200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>254200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>309700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>354100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>325800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>191600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>258200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>260700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3361,47 +3641,53 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>948500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>869100</v>
+      </c>
+      <c r="F61" s="3">
         <v>779700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>781300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>827900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>784500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>160000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>787700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>789300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>795400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1179600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1182800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3417,47 +3703,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>178700</v>
+      </c>
+      <c r="F62" s="3">
         <v>179900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>161500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>149800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>153800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>790000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>121700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>133200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>145300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>135700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3765,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3827,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3889,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,47 +3951,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1418200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1302400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1307600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1375800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1315900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1192600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1259800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1263500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1248300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1132300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1573400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1457100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3697,8 +4013,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +4041,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +4099,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,8 +4161,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3887,8 +4223,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,47 +4285,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-349900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-318300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-288100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-346000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-469000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-461500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-422500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-467000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-585800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-386600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-827200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-869200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4347,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4409,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4471,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,47 +4533,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-198000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-258800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-385700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-381300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-217600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-265700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-391000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-386400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-827000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-869100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,8 +4595,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4657,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F81" s="3">
         <v>57900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>123000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>44500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>118800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-30300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>42100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>71900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,44 +4814,46 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>6300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4465,17 +4863,23 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4934,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4996,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +5058,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +5120,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,44 +5182,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>209400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-125600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>51200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>229800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-119300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4801,17 +5235,23 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,44 +5272,46 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4879,17 +5321,23 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5392,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,44 +5454,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-72800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-22300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-33400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-13200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5047,17 +5507,23 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,8 +5544,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5134,8 +5602,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5664,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5726,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,44 +5788,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>88600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-46000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>43200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-154100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>66600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5349,17 +5841,23 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5414,44 +5912,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-80800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>141200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-290200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>36000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>218700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-53000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5461,13 +5965,19 @@
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LESL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>LESL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,146 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>610900</v>
+      </c>
+      <c r="E8" s="3">
         <v>212800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>195100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>475600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>673600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>228100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>184800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>408900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>596500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>192400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>145000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>381300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>479900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
         <v>123000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>298200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,59 +814,62 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>359300</v>
+      </c>
+      <c r="E9" s="3">
         <v>141700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>129800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>258400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>370000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>117500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>220900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>312800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>214700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>269200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
         <v>81900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>166900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,59 +879,62 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E10" s="3">
         <v>71100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>217200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>303600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>67300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>188000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>283700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>166600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>210700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
         <v>41100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>131300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,8 +944,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +971,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1034,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,19 +1099,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1107,37 +1126,37 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1145,8 +1164,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1229,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,59 +1253,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>495100</v>
+      </c>
+      <c r="E17" s="3">
         <v>238000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>222100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>392500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>501500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>232100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>197300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>430100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>178100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>313300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>368300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>141600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>239300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,59 +1316,62 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>83100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>172100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>67100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>166400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>111600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-18600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1381,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1408,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,44 +1424,44 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,59 +1471,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>91000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>179300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>76200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>86300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1500,59 +1536,62 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E22" s="3">
         <v>17200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6900</v>
       </c>
       <c r="I22" s="3">
         <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="K22" s="3">
         <v>7400</v>
       </c>
       <c r="L22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>22400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,59 +1601,62 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>165400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>59300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>158200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
         <v>-41200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,59 +1666,62 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
         <v>-15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1686,8 +1731,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,59 +1796,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>-26200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,59 +1861,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>123000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>71900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>-26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1926,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +1991,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2056,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2121,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,8 +2186,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,44 +2204,44 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,59 +2251,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>123000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>-26200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,8 +2316,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,59 +2381,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>123000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>-26200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,75 +2446,81 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2543,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,50 +2568,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>343500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>88700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>102800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>157100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>148900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2631,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,50 +2696,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E43" s="3">
         <v>38000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>94500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2669,50 +2761,53 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>436600</v>
+      </c>
+      <c r="E44" s="3">
         <v>492300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>429500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>361700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>361400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>244600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>198800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>224500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>277900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>174500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>149000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>181100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,50 +2826,53 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E45" s="3">
         <v>52700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,50 +2891,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>536700</v>
+      </c>
+      <c r="E46" s="3">
         <v>591700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>508500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>542400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>632300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>471900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>375500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>601700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>610100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>448300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>340100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>360200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>390400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +2956,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2917,50 +3021,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E48" s="3">
         <v>312000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>308900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>314600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>293300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>279100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>273200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>282600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>245200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>253800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>244000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,50 +3086,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>219800</v>
+      </c>
+      <c r="E49" s="3">
         <v>216600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>218100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>213700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>155700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>132400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>121200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>121700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3041,8 +3151,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3216,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,50 +3281,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E52" s="3">
         <v>42900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3346,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,50 +3411,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1137400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1163200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1076800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1109600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1117000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>930200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>811300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1042200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>997800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>857300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>745800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>746400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>588000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3476,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3503,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,50 +3528,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E57" s="3">
         <v>139800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>219000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>160900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>99500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>155500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>181500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>92400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>133100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3591,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3494,7 +3627,7 @@
         <v>8100</v>
       </c>
       <c r="M58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="N58" s="3">
         <v>8300</v>
@@ -3502,8 +3635,8 @@
       <c r="O58" s="3">
         <v>8300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>8300</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3523,50 +3656,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E59" s="3">
         <v>144500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>183400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>205800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>169200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>146600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>190500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>157500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>119300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3585,50 +3721,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>315300</v>
+      </c>
+      <c r="E60" s="3">
         <v>292400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>254600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>348000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>432900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>338200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>254200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>309700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>354100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>325800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>191600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>258200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>260700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,50 +3786,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>805900</v>
+      </c>
+      <c r="E61" s="3">
         <v>948500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>869100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>779700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>781300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>827900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>784500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>160000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>787700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>789300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>795400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1179600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1182800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3709,50 +3851,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E62" s="3">
         <v>177300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>178700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>179900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>161500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>149800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>153800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>790000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>133200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>145300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>135700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3916,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3981,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4046,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,50 +4111,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1317200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1418200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1302400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1307600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1375800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1315900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1192600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1259800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1263500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1248300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1132300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1573400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1457100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4019,8 +4176,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4203,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4266,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4331,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4396,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,50 +4461,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-277300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-349900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-318300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-288100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-346000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-469000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-461500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-422500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-467000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-585800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-386600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-827200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-869200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4526,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4591,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4656,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,50 +4721,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-255000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-225600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-198000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-258800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-385700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-381300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-217600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-265700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-391000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-386400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-827000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-869100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4601,8 +4786,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,126 +4851,132 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>123000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>-26200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4986,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,47 +5013,48 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>6300</v>
       </c>
       <c r="L83" s="3">
         <v>6300</v>
       </c>
       <c r="M83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N83" s="3">
         <v>6600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4869,8 +5067,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4878,8 +5076,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5141,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5206,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5271,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5336,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,47 +5401,50 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-184400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>209400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-125600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>229800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-119300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5457,8 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5250,8 +5466,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,47 +5493,48 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5327,8 +5547,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5336,8 +5556,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5621,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,47 +5686,50 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-72800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5513,8 +5742,8 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5522,8 +5751,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +5778,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +5841,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5906,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5971,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,47 +6036,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="E100" s="3">
         <v>77400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>88600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-154100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-2000</v>
       </c>
       <c r="K100" s="3">
         <v>-2000</v>
       </c>
       <c r="L100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M100" s="3">
         <v>-8800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>66600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5847,8 +6092,8 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5856,8 +6101,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5918,47 +6166,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>141200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-290200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>218700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5971,13 +6222,16 @@
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
